--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnc-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnc-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Tnc</t>
+  </si>
+  <si>
+    <t>Itgb3</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tnc</t>
-  </si>
-  <si>
-    <t>Itgb3</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H2">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I2">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J2">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N2">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q2">
-        <v>10.91302438263133</v>
+        <v>155.1041355856431</v>
       </c>
       <c r="R2">
-        <v>98.21721944368201</v>
+        <v>1395.937220270788</v>
       </c>
       <c r="S2">
-        <v>0.004991256012970664</v>
+        <v>0.0617895614589004</v>
       </c>
       <c r="T2">
-        <v>0.004991256012970665</v>
+        <v>0.0617895614589004</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H3">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I3">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J3">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.405096</v>
       </c>
       <c r="O3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q3">
-        <v>12.87455420963733</v>
+        <v>52.02636638661511</v>
       </c>
       <c r="R3">
-        <v>115.870987886736</v>
+        <v>468.237297479536</v>
       </c>
       <c r="S3">
-        <v>0.005888394807899695</v>
+        <v>0.02072598742252095</v>
       </c>
       <c r="T3">
-        <v>0.005888394807899695</v>
+        <v>0.02072598742252096</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H4">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I4">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J4">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N4">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q4">
-        <v>1.64786072357</v>
+        <v>8.919184856137111</v>
       </c>
       <c r="R4">
-        <v>14.83074651213</v>
+        <v>80.272663705234</v>
       </c>
       <c r="S4">
-        <v>0.0007536769328718183</v>
+        <v>0.003553177474931173</v>
       </c>
       <c r="T4">
-        <v>0.0007536769328718183</v>
+        <v>0.003553177474931174</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H5">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I5">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J5">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N5">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O5">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P5">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q5">
-        <v>1.366976538618667</v>
+        <v>2.815204685852</v>
       </c>
       <c r="R5">
-        <v>12.302788847568</v>
+        <v>25.336842172668</v>
       </c>
       <c r="S5">
-        <v>0.0006252098069925791</v>
+        <v>0.001121506285432262</v>
       </c>
       <c r="T5">
-        <v>0.0006252098069925791</v>
+        <v>0.001121506285432262</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H6">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I6">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J6">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N6">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q6">
-        <v>58.895945838092</v>
+        <v>170.5823093744496</v>
       </c>
       <c r="R6">
-        <v>530.063512542828</v>
+        <v>1535.240784370046</v>
       </c>
       <c r="S6">
-        <v>0.02693705553080519</v>
+        <v>0.06795567409660574</v>
       </c>
       <c r="T6">
-        <v>0.02693705553080519</v>
+        <v>0.06795567409660574</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H7">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I7">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J7">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N7">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q7">
-        <v>2.454390233859334</v>
+        <v>4.044184315579778</v>
       </c>
       <c r="R7">
-        <v>22.089512104734</v>
+        <v>36.397658840218</v>
       </c>
       <c r="S7">
-        <v>0.001122556825990803</v>
+        <v>0.001611100660695524</v>
       </c>
       <c r="T7">
-        <v>0.001122556825990803</v>
+        <v>0.001611100660695524</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>254.912293</v>
       </c>
       <c r="I8">
-        <v>0.6568214971673703</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J8">
-        <v>0.6568214971673704</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N8">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q8">
-        <v>177.7836787721068</v>
+        <v>625.2862027595303</v>
       </c>
       <c r="R8">
-        <v>1600.053108948961</v>
+        <v>5627.575824835773</v>
       </c>
       <c r="S8">
-        <v>0.08131236809949863</v>
+        <v>0.24909819527977</v>
       </c>
       <c r="T8">
-        <v>0.08131236809949866</v>
+        <v>0.2490981952797701</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>254.912293</v>
       </c>
       <c r="I9">
-        <v>0.6568214971673703</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J9">
-        <v>0.6568214971673704</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>7.405096</v>
       </c>
       <c r="O9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q9">
         <v>209.7388890272364</v>
@@ -1013,10 +1013,10 @@
         <v>1887.650001245128</v>
       </c>
       <c r="S9">
-        <v>0.09592762320563633</v>
+        <v>0.08355466425789808</v>
       </c>
       <c r="T9">
-        <v>0.09592762320563634</v>
+        <v>0.08355466425789811</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>254.912293</v>
       </c>
       <c r="I10">
-        <v>0.6568214971673703</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J10">
-        <v>0.6568214971673704</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N10">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q10">
-        <v>26.84523842965167</v>
+        <v>35.95676678346744</v>
       </c>
       <c r="R10">
-        <v>241.607145866865</v>
+        <v>323.610901051207</v>
       </c>
       <c r="S10">
-        <v>0.01227812318873626</v>
+        <v>0.01432426571117206</v>
       </c>
       <c r="T10">
-        <v>0.01227812318873626</v>
+        <v>0.01432426571117206</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>254.912293</v>
       </c>
       <c r="I11">
-        <v>0.6568214971673703</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J11">
-        <v>0.6568214971673704</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N11">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O11">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P11">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q11">
-        <v>22.26936450518489</v>
+        <v>11.349205108946</v>
       </c>
       <c r="R11">
-        <v>200.424280546664</v>
+        <v>102.142845980514</v>
       </c>
       <c r="S11">
-        <v>0.01018526996681544</v>
+        <v>0.004521236032431077</v>
       </c>
       <c r="T11">
-        <v>0.01018526996681544</v>
+        <v>0.004521236032431079</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>254.912293</v>
       </c>
       <c r="I12">
-        <v>0.6568214971673703</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J12">
-        <v>0.6568214971673704</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N12">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q12">
-        <v>959.4716871084325</v>
+        <v>687.6848517543591</v>
       </c>
       <c r="R12">
-        <v>8635.245183975892</v>
+        <v>6189.163665789232</v>
       </c>
       <c r="S12">
-        <v>0.438830580748722</v>
+        <v>0.2739562375393164</v>
       </c>
       <c r="T12">
-        <v>0.4388305807487221</v>
+        <v>0.2739562375393164</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>254.912293</v>
       </c>
       <c r="I13">
-        <v>0.6568214971673703</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J13">
-        <v>0.6568214971673704</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N13">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q13">
-        <v>39.98438101286744</v>
+        <v>16.30370875928211</v>
       </c>
       <c r="R13">
-        <v>359.859429115807</v>
+        <v>146.733378833539</v>
       </c>
       <c r="S13">
-        <v>0.0182875319579616</v>
+        <v>0.006494984873136564</v>
       </c>
       <c r="T13">
-        <v>0.0182875319579616</v>
+        <v>0.006494984873136564</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.03355766666666667</v>
+        <v>27.92722666666667</v>
       </c>
       <c r="H14">
-        <v>0.100673</v>
+        <v>83.78167999999999</v>
       </c>
       <c r="I14">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="J14">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N14">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q14">
-        <v>0.07021244869122223</v>
+        <v>205.5119740655822</v>
       </c>
       <c r="R14">
-        <v>0.6319120382210001</v>
+        <v>1849.60776659024</v>
       </c>
       <c r="S14">
-        <v>3.211284923666207E-05</v>
+        <v>0.08187076833327613</v>
       </c>
       <c r="T14">
-        <v>3.211284923666207E-05</v>
+        <v>0.08187076833327614</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.03355766666666667</v>
+        <v>27.92722666666667</v>
       </c>
       <c r="H15">
-        <v>0.100673</v>
+        <v>83.78167999999999</v>
       </c>
       <c r="I15">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="J15">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.405096</v>
       </c>
       <c r="O15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q15">
-        <v>0.08283258106755555</v>
+        <v>68.93459816014222</v>
       </c>
       <c r="R15">
-        <v>0.745493229608</v>
+        <v>620.41138344128</v>
       </c>
       <c r="S15">
-        <v>3.788487992213474E-05</v>
+        <v>0.02746179896221268</v>
       </c>
       <c r="T15">
-        <v>3.788487992213474E-05</v>
+        <v>0.02746179896221269</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.03355766666666667</v>
+        <v>27.92722666666667</v>
       </c>
       <c r="H16">
-        <v>0.100673</v>
+        <v>83.78167999999999</v>
       </c>
       <c r="I16">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="J16">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N16">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q16">
-        <v>0.01060204141833333</v>
+        <v>11.81786210870222</v>
       </c>
       <c r="R16">
-        <v>0.095418372765</v>
+        <v>106.36075897832</v>
       </c>
       <c r="S16">
-        <v>4.849022702014791E-06</v>
+        <v>0.004707937117996855</v>
       </c>
       <c r="T16">
-        <v>4.849022702014791E-06</v>
+        <v>0.004707937117996856</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.03355766666666667</v>
+        <v>27.92722666666667</v>
       </c>
       <c r="H17">
-        <v>0.100673</v>
+        <v>83.78167999999999</v>
       </c>
       <c r="I17">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="J17">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N17">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O17">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P17">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q17">
-        <v>0.008794882767111111</v>
+        <v>3.73012795696</v>
       </c>
       <c r="R17">
-        <v>0.079153944904</v>
+        <v>33.57115161263999</v>
       </c>
       <c r="S17">
-        <v>4.022488171526553E-06</v>
+        <v>0.001485988557145066</v>
       </c>
       <c r="T17">
-        <v>4.022488171526553E-06</v>
+        <v>0.001485988557145066</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.03355766666666667</v>
+        <v>27.92722666666667</v>
       </c>
       <c r="H18">
-        <v>0.100673</v>
+        <v>83.78167999999999</v>
       </c>
       <c r="I18">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="J18">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N18">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q18">
-        <v>0.3789259906593334</v>
+        <v>226.0204539862311</v>
       </c>
       <c r="R18">
-        <v>3.410333915934</v>
+        <v>2034.18408587608</v>
       </c>
       <c r="S18">
-        <v>0.0001733082015613743</v>
+        <v>0.09004082760152722</v>
       </c>
       <c r="T18">
-        <v>0.0001733082015613743</v>
+        <v>0.09004082760152723</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.03355766666666667</v>
+        <v>27.92722666666667</v>
       </c>
       <c r="H19">
-        <v>0.100673</v>
+        <v>83.78167999999999</v>
       </c>
       <c r="I19">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="J19">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N19">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q19">
-        <v>0.01579110815855556</v>
+        <v>5.358517998515556</v>
       </c>
       <c r="R19">
-        <v>0.142119973427</v>
+        <v>48.22666198664</v>
       </c>
       <c r="S19">
-        <v>7.222330014519419E-06</v>
+        <v>0.002134697930185612</v>
       </c>
       <c r="T19">
-        <v>7.222330014519419E-06</v>
+        <v>0.002134697930185612</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>39.03529933333333</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H20">
-        <v>117.105898</v>
+        <v>1.346391</v>
       </c>
       <c r="I20">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J20">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N20">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q20">
-        <v>81.67325752450512</v>
+        <v>3.302625016282</v>
       </c>
       <c r="R20">
-        <v>735.059317720546</v>
+        <v>29.723625146538</v>
       </c>
       <c r="S20">
-        <v>0.03735464371974537</v>
+        <v>0.001315682206981383</v>
       </c>
       <c r="T20">
-        <v>0.03735464371974538</v>
+        <v>0.001315682206981383</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>39.03529933333333</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H21">
-        <v>117.105898</v>
+        <v>1.346391</v>
       </c>
       <c r="I21">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J21">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.405096</v>
       </c>
       <c r="O21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q21">
-        <v>96.35337965068977</v>
+        <v>1.107794956504</v>
       </c>
       <c r="R21">
-        <v>867.180416856208</v>
+        <v>9.970154608535999</v>
       </c>
       <c r="S21">
-        <v>0.04406884550876361</v>
+        <v>0.0004413174690043515</v>
       </c>
       <c r="T21">
-        <v>0.04406884550876361</v>
+        <v>0.0004413174690043516</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>39.03529933333333</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H22">
-        <v>117.105898</v>
+        <v>1.346391</v>
       </c>
       <c r="I22">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J22">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N22">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q22">
-        <v>12.33261729487667</v>
+        <v>0.189915780901</v>
       </c>
       <c r="R22">
-        <v>110.99355565389</v>
+        <v>1.709242028109</v>
       </c>
       <c r="S22">
-        <v>0.005640530807086592</v>
+        <v>7.565763976369182E-05</v>
       </c>
       <c r="T22">
-        <v>0.005640530807086592</v>
+        <v>7.565763976369184E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>39.03529933333333</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H23">
-        <v>117.105898</v>
+        <v>1.346391</v>
       </c>
       <c r="I23">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J23">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N23">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O23">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P23">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q23">
-        <v>10.23047534341156</v>
+        <v>0.05994402010199999</v>
       </c>
       <c r="R23">
-        <v>92.074278090704</v>
+        <v>0.539496180918</v>
       </c>
       <c r="S23">
-        <v>0.00467908068221862</v>
+        <v>2.388018024278222E-05</v>
       </c>
       <c r="T23">
-        <v>0.00467908068221862</v>
+        <v>2.388018024278222E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>39.03529933333333</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H24">
-        <v>117.105898</v>
+        <v>1.346391</v>
       </c>
       <c r="I24">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J24">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N24">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q24">
-        <v>440.7782465179427</v>
+        <v>3.632201038018999</v>
       </c>
       <c r="R24">
-        <v>3967.004218661484</v>
+        <v>32.689809342171</v>
       </c>
       <c r="S24">
-        <v>0.2015973754095908</v>
+        <v>0.001446976951467765</v>
       </c>
       <c r="T24">
-        <v>0.2015973754095908</v>
+        <v>0.001446976951467765</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>39.03529933333333</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H25">
-        <v>117.105898</v>
+        <v>1.346391</v>
       </c>
       <c r="I25">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J25">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N25">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q25">
-        <v>18.36869767785578</v>
+        <v>0.086112625177</v>
       </c>
       <c r="R25">
-        <v>165.318279100702</v>
+        <v>0.7750136265929999</v>
       </c>
       <c r="S25">
-        <v>0.008401234114436339</v>
+        <v>3.430509009750743E-05</v>
       </c>
       <c r="T25">
-        <v>0.008401234114436341</v>
+        <v>3.430509009750743E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.008067</v>
+        <v>0.03409466666666667</v>
       </c>
       <c r="H26">
-        <v>0.024201</v>
+        <v>0.102284</v>
       </c>
       <c r="I26">
-        <v>6.235767159705997E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="J26">
-        <v>6.235767159705999E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N26">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O26">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P26">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q26">
-        <v>0.016878522253</v>
+        <v>0.2508971741235556</v>
       </c>
       <c r="R26">
-        <v>0.151906700277</v>
+        <v>2.258074567112</v>
       </c>
       <c r="S26">
-        <v>7.719677216100231E-06</v>
+        <v>9.995108319862786E-05</v>
       </c>
       <c r="T26">
-        <v>7.719677216100235E-06</v>
+        <v>9.995108319862787E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.008067</v>
+        <v>0.03409466666666667</v>
       </c>
       <c r="H27">
-        <v>0.024201</v>
+        <v>0.102284</v>
       </c>
       <c r="I27">
-        <v>6.235767159705997E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="J27">
-        <v>6.235767159705999E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>7.405096</v>
       </c>
       <c r="O27">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P27">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q27">
-        <v>0.019912303144</v>
+        <v>0.08415809325155556</v>
       </c>
       <c r="R27">
-        <v>0.179210728296</v>
+        <v>0.757422839264</v>
       </c>
       <c r="S27">
-        <v>9.107228144543053E-06</v>
+        <v>3.352645405357069E-05</v>
       </c>
       <c r="T27">
-        <v>9.107228144543055E-06</v>
+        <v>3.352645405357069E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.008067</v>
+        <v>0.03409466666666667</v>
       </c>
       <c r="H28">
-        <v>0.024201</v>
+        <v>0.102284</v>
       </c>
       <c r="I28">
-        <v>6.235767159705997E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="J28">
-        <v>6.235767159705999E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N28">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O28">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P28">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q28">
-        <v>0.002548647645</v>
+        <v>0.01442771507955556</v>
       </c>
       <c r="R28">
-        <v>0.022937828805</v>
+        <v>0.129849435716</v>
       </c>
       <c r="S28">
-        <v>1.165667044902406E-06</v>
+        <v>5.747636478251455E-06</v>
       </c>
       <c r="T28">
-        <v>1.165667044902406E-06</v>
+        <v>5.747636478251456E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.008067</v>
+        <v>0.03409466666666667</v>
       </c>
       <c r="H29">
-        <v>0.024201</v>
+        <v>0.102284</v>
       </c>
       <c r="I29">
-        <v>6.235767159705997E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="J29">
-        <v>6.235767159705999E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N29">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O29">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P29">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q29">
-        <v>0.002114220872</v>
+        <v>0.004553888248</v>
       </c>
       <c r="R29">
-        <v>0.019027987848</v>
+        <v>0.040984994232</v>
       </c>
       <c r="S29">
-        <v>9.66974623177159E-07</v>
+        <v>1.814153805211663E-06</v>
       </c>
       <c r="T29">
-        <v>9.669746231771592E-07</v>
+        <v>1.814153805211664E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.008067</v>
+        <v>0.03409466666666667</v>
       </c>
       <c r="H30">
-        <v>0.024201</v>
+        <v>0.102284</v>
       </c>
       <c r="I30">
-        <v>6.235767159705997E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="J30">
-        <v>6.235767159705999E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N30">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O30">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P30">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q30">
-        <v>0.09109083766199999</v>
+        <v>0.2759347403337778</v>
       </c>
       <c r="R30">
-        <v>0.819817538958</v>
+        <v>2.483412663004</v>
       </c>
       <c r="S30">
-        <v>4.166193305043874E-05</v>
+        <v>0.0001099254157996666</v>
       </c>
       <c r="T30">
-        <v>4.166193305043874E-05</v>
+        <v>0.0001099254157996666</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.008067</v>
+        <v>0.03409466666666667</v>
       </c>
       <c r="H31">
-        <v>0.024201</v>
+        <v>0.102284</v>
       </c>
       <c r="I31">
-        <v>6.235767159705997E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="J31">
-        <v>6.235767159705999E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N31">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O31">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P31">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q31">
-        <v>0.003796058611</v>
+        <v>0.00654189143688889</v>
       </c>
       <c r="R31">
-        <v>0.034164527499</v>
+        <v>0.058877022932</v>
       </c>
       <c r="S31">
-        <v>1.736191517898388E-06</v>
+        <v>2.606123953244971E-06</v>
       </c>
       <c r="T31">
-        <v>1.736191517898389E-06</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G32">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H32">
-        <v>0.309271</v>
-      </c>
-      <c r="I32">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J32">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>2.092292333333333</v>
-      </c>
-      <c r="N32">
-        <v>6.276877000000001</v>
-      </c>
-      <c r="O32">
-        <v>0.1237967521619938</v>
-      </c>
-      <c r="P32">
-        <v>0.1237967521619938</v>
-      </c>
-      <c r="Q32">
-        <v>0.2156951140741111</v>
-      </c>
-      <c r="R32">
-        <v>1.941256026667</v>
-      </c>
-      <c r="S32">
-        <v>9.865180332633093E-05</v>
-      </c>
-      <c r="T32">
-        <v>9.865180332633095E-05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G33">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H33">
-        <v>0.309271</v>
-      </c>
-      <c r="I33">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J33">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>2.468365333333333</v>
-      </c>
-      <c r="N33">
-        <v>7.405096</v>
-      </c>
-      <c r="O33">
-        <v>0.1460482393151517</v>
-      </c>
-      <c r="P33">
-        <v>0.1460482393151517</v>
-      </c>
-      <c r="Q33">
-        <v>0.2544646050017778</v>
-      </c>
-      <c r="R33">
-        <v>2.290181445016</v>
-      </c>
-      <c r="S33">
-        <v>0.0001163836847853797</v>
-      </c>
-      <c r="T33">
-        <v>0.0001163836847853797</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G34">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H34">
-        <v>0.309271</v>
-      </c>
-      <c r="I34">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J34">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>0.315935</v>
-      </c>
-      <c r="N34">
-        <v>0.947805</v>
-      </c>
-      <c r="O34">
-        <v>0.01869324198688273</v>
-      </c>
-      <c r="P34">
-        <v>0.01869324198688273</v>
-      </c>
-      <c r="Q34">
-        <v>0.03256984446166667</v>
-      </c>
-      <c r="R34">
-        <v>0.293128600155</v>
-      </c>
-      <c r="S34">
-        <v>1.489636844113929E-05</v>
-      </c>
-      <c r="T34">
-        <v>1.48963684411393E-05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G35">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H35">
-        <v>0.309271</v>
-      </c>
-      <c r="I35">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J35">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>0.2620826666666667</v>
-      </c>
-      <c r="N35">
-        <v>0.7862480000000001</v>
-      </c>
-      <c r="O35">
-        <v>0.01550690714408826</v>
-      </c>
-      <c r="P35">
-        <v>0.01550690714408826</v>
-      </c>
-      <c r="Q35">
-        <v>0.02701818946755556</v>
-      </c>
-      <c r="R35">
-        <v>0.243163705208</v>
-      </c>
-      <c r="S35">
-        <v>1.235722526691555E-05</v>
-      </c>
-      <c r="T35">
-        <v>1.235722526691555E-05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G36">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H36">
-        <v>0.309271</v>
-      </c>
-      <c r="I36">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J36">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>11.291786</v>
-      </c>
-      <c r="N36">
-        <v>33.875358</v>
-      </c>
-      <c r="O36">
-        <v>0.6681123907199095</v>
-      </c>
-      <c r="P36">
-        <v>0.6681123907199095</v>
-      </c>
-      <c r="Q36">
-        <v>1.164073982668667</v>
-      </c>
-      <c r="R36">
-        <v>10.476665844018</v>
-      </c>
-      <c r="S36">
-        <v>0.0005324088961795891</v>
-      </c>
-      <c r="T36">
-        <v>0.0005324088961795893</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G37">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H37">
-        <v>0.309271</v>
-      </c>
-      <c r="I37">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J37">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0.4705663333333334</v>
-      </c>
-      <c r="N37">
-        <v>1.411699</v>
-      </c>
-      <c r="O37">
-        <v>0.02784246867197405</v>
-      </c>
-      <c r="P37">
-        <v>0.02784246867197405</v>
-      </c>
-      <c r="Q37">
-        <v>0.04851084015877778</v>
-      </c>
-      <c r="R37">
-        <v>0.436597561429</v>
-      </c>
-      <c r="S37">
-        <v>2.218725205288841E-05</v>
-      </c>
-      <c r="T37">
-        <v>2.218725205288842E-05</v>
+        <v>2.606123953244971E-06</v>
       </c>
     </row>
   </sheetData>
